--- a/Atividade8-MLP/RELIEF/scores_balanced-Relief-Sem_Normalizacao_MLPClassifier.xlsx
+++ b/Atividade8-MLP/RELIEF/scores_balanced-Relief-Sem_Normalizacao_MLPClassifier.xlsx
@@ -572,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="G6">
         <v>0.6666666666666666</v>
       </c>
       <c r="H6">
-        <v>0.9069767441860463</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -601,10 +601,10 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H7">
         <v>0.9069767441860463</v>
@@ -659,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1007,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0.8</v>
       </c>
       <c r="H21">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1065,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1268,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1529,13 +1529,13 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H39">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1587,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="F41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0.8</v>
       </c>
       <c r="H41">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1935,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I53" t="s">
         <v>11</v>
@@ -1993,13 +1993,13 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
@@ -2080,13 +2080,13 @@
         <v>7</v>
       </c>
       <c r="F58">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G58">
         <v>0.8333333333333334</v>
       </c>
       <c r="H58">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I58" t="s">
         <v>11</v>
@@ -2109,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="F59">
+        <v>0.375</v>
+      </c>
+      <c r="G59">
         <v>0.5</v>
       </c>
-      <c r="G59">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H59">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
@@ -2138,13 +2138,13 @@
         <v>9</v>
       </c>
       <c r="F60">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H61">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I61" t="s">
         <v>11</v>
@@ -2283,13 +2283,13 @@
         <v>4</v>
       </c>
       <c r="F65">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
@@ -2370,13 +2370,13 @@
         <v>7</v>
       </c>
       <c r="F68">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G68">
         <v>0.8333333333333334</v>
       </c>
       <c r="H68">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
@@ -2399,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G69">
         <v>0.5</v>
       </c>
       <c r="H69">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
@@ -2428,13 +2428,13 @@
         <v>9</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
@@ -2544,13 +2544,13 @@
         <v>3</v>
       </c>
       <c r="F74">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G74">
         <v>0.8</v>
       </c>
       <c r="H74">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
@@ -2689,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="F79">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H79">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I79" t="s">
         <v>11</v>
@@ -2718,10 +2718,10 @@
         <v>9</v>
       </c>
       <c r="F80">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H80">
         <v>0.9176470588235294</v>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H81">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
@@ -2805,13 +2805,13 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>0.5714285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0.9534883720930232</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -2863,13 +2863,13 @@
         <v>4</v>
       </c>
       <c r="F85">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I85" t="s">
         <v>11</v>
@@ -2950,13 +2950,13 @@
         <v>7</v>
       </c>
       <c r="F88">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G88">
         <v>0.8333333333333334</v>
       </c>
       <c r="H88">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I88" t="s">
         <v>11</v>
@@ -2979,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="F89">
-        <v>0.2857142857142857</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G89">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H89">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I89" t="s">
         <v>11</v>
@@ -3240,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="F98">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G98">
         <v>0.8333333333333334</v>
       </c>
       <c r="H98">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I98" t="s">
         <v>11</v>
@@ -3269,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="G99">
         <v>0.5</v>
       </c>
       <c r="H99">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I99" t="s">
         <v>11</v>
@@ -3385,13 +3385,13 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I103" t="s">
         <v>11</v>
@@ -3559,13 +3559,13 @@
         <v>8</v>
       </c>
       <c r="F109">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G109">
         <v>0.6666666666666666</v>
       </c>
       <c r="H109">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -3617,13 +3617,13 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G111">
         <v>0.8</v>
       </c>
       <c r="H111">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I111" t="s">
         <v>11</v>
@@ -3820,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="F118">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G118">
         <v>0.8333333333333334</v>
       </c>
       <c r="H118">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I118" t="s">
         <v>11</v>
@@ -3849,13 +3849,13 @@
         <v>8</v>
       </c>
       <c r="F119">
+        <v>0.375</v>
+      </c>
+      <c r="G119">
         <v>0.5</v>
       </c>
-      <c r="G119">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H119">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I119" t="s">
         <v>11</v>
@@ -3878,13 +3878,13 @@
         <v>9</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I120" t="s">
         <v>11</v>
@@ -3965,13 +3965,13 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I123" t="s">
         <v>11</v>
@@ -4023,13 +4023,13 @@
         <v>4</v>
       </c>
       <c r="F125">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I125" t="s">
         <v>11</v>
@@ -4139,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="F129">
+        <v>0.375</v>
+      </c>
+      <c r="G129">
         <v>0.5</v>
       </c>
-      <c r="G129">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H129">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I129" t="s">
         <v>11</v>
@@ -4168,13 +4168,13 @@
         <v>9</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I130" t="s">
         <v>11</v>
@@ -4313,13 +4313,13 @@
         <v>4</v>
       </c>
       <c r="F135">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I135" t="s">
         <v>11</v>
@@ -4603,13 +4603,13 @@
         <v>4</v>
       </c>
       <c r="F145">
-        <v>0.75</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>0.9767441860465116</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I145" t="s">
         <v>11</v>
@@ -4719,10 +4719,10 @@
         <v>8</v>
       </c>
       <c r="F149">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G149">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H149">
         <v>0.9186046511627908</v>
@@ -4748,13 +4748,13 @@
         <v>9</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I150" t="s">
         <v>11</v>
@@ -4893,13 +4893,13 @@
         <v>4</v>
       </c>
       <c r="F155">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I155" t="s">
         <v>11</v>
@@ -4980,13 +4980,13 @@
         <v>7</v>
       </c>
       <c r="F158">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G158">
         <v>0.8333333333333334</v>
       </c>
       <c r="H158">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I158" t="s">
         <v>11</v>
@@ -5009,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="F159">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G159">
         <v>0.6666666666666666</v>
       </c>
       <c r="H159">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I159" t="s">
         <v>11</v>
@@ -5038,13 +5038,13 @@
         <v>9</v>
       </c>
       <c r="F160">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I160" t="s">
         <v>11</v>
@@ -5067,13 +5067,13 @@
         <v>10</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G161">
         <v>0.8</v>
       </c>
       <c r="H161">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I161" t="s">
         <v>11</v>
@@ -5125,13 +5125,13 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G163">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I163" t="s">
         <v>11</v>
@@ -5183,13 +5183,13 @@
         <v>4</v>
       </c>
       <c r="F165">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I165" t="s">
         <v>11</v>
@@ -5241,13 +5241,13 @@
         <v>6</v>
       </c>
       <c r="F167">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G167">
         <v>0.8333333333333334</v>
       </c>
       <c r="H167">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I167" t="s">
         <v>11</v>
@@ -5302,7 +5302,7 @@
         <v>0.5</v>
       </c>
       <c r="G169">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H169">
         <v>0.9302325581395348</v>
@@ -5360,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="G171">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H171">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I171" t="s">
         <v>11</v>
@@ -5415,13 +5415,13 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I173" t="s">
         <v>11</v>
@@ -5531,13 +5531,13 @@
         <v>6</v>
       </c>
       <c r="F177">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G177">
         <v>0.8333333333333334</v>
       </c>
       <c r="H177">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I177" t="s">
         <v>11</v>
@@ -5647,13 +5647,13 @@
         <v>10</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G181">
         <v>0.6</v>
       </c>
       <c r="H181">
-        <v>0.976470588235294</v>
+        <v>0.9529411764705882</v>
       </c>
       <c r="I181" t="s">
         <v>11</v>
@@ -5792,13 +5792,13 @@
         <v>5</v>
       </c>
       <c r="F186">
-        <v>0.3636363636363637</v>
+        <v>0.4</v>
       </c>
       <c r="G186">
         <v>0.6666666666666666</v>
       </c>
       <c r="H186">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I186" t="s">
         <v>11</v>
@@ -5821,13 +5821,13 @@
         <v>6</v>
       </c>
       <c r="F187">
-        <v>0.4545454545454545</v>
+        <v>0.625</v>
       </c>
       <c r="G187">
         <v>0.8333333333333334</v>
       </c>
       <c r="H187">
-        <v>0.9186046511627908</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -5850,13 +5850,13 @@
         <v>7</v>
       </c>
       <c r="F188">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G188">
         <v>0.8333333333333334</v>
       </c>
       <c r="H188">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I188" t="s">
         <v>11</v>
@@ -5879,13 +5879,13 @@
         <v>8</v>
       </c>
       <c r="F189">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G189">
         <v>0.5</v>
       </c>
       <c r="H189">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I189" t="s">
         <v>11</v>
@@ -5937,13 +5937,13 @@
         <v>10</v>
       </c>
       <c r="F191">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="G191">
         <v>0.8</v>
       </c>
       <c r="H191">
-        <v>0.9647058823529412</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I191" t="s">
         <v>11</v>
@@ -5995,13 +5995,13 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I193" t="s">
         <v>11</v>
@@ -6169,13 +6169,13 @@
         <v>8</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G199">
         <v>0.6666666666666666</v>
       </c>
       <c r="H199">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I199" t="s">
         <v>11</v>
@@ -6285,13 +6285,13 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G203">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I203" t="s">
         <v>11</v>
@@ -6691,13 +6691,13 @@
         <v>6</v>
       </c>
       <c r="F217">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G217">
         <v>0.8333333333333334</v>
       </c>
       <c r="H217">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I217" t="s">
         <v>11</v>
@@ -6749,13 +6749,13 @@
         <v>8</v>
       </c>
       <c r="F219">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G219">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H219">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I219" t="s">
         <v>11</v>
@@ -7039,10 +7039,10 @@
         <v>8</v>
       </c>
       <c r="F229">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G229">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H229">
         <v>0.9186046511627908</v>
@@ -7068,13 +7068,13 @@
         <v>9</v>
       </c>
       <c r="F230">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G230">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I230" t="s">
         <v>11</v>
@@ -7213,13 +7213,13 @@
         <v>4</v>
       </c>
       <c r="F235">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I235" t="s">
         <v>11</v>
@@ -7271,13 +7271,13 @@
         <v>6</v>
       </c>
       <c r="F237">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="G237">
         <v>0.8333333333333334</v>
       </c>
       <c r="H237">
-        <v>0.9534883720930232</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I237" t="s">
         <v>11</v>
@@ -7300,13 +7300,13 @@
         <v>7</v>
       </c>
       <c r="F238">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="G238">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H238">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I238" t="s">
         <v>11</v>
@@ -7332,7 +7332,7 @@
         <v>0.5</v>
       </c>
       <c r="G239">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H239">
         <v>0.9302325581395348</v>
@@ -7358,13 +7358,13 @@
         <v>9</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G240">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I240" t="s">
         <v>11</v>
@@ -7390,10 +7390,10 @@
         <v>1</v>
       </c>
       <c r="G241">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H241">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I241" t="s">
         <v>11</v>
@@ -7474,13 +7474,13 @@
         <v>3</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G244">
         <v>0.8</v>
       </c>
       <c r="H244">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I244" t="s">
         <v>11</v>
@@ -7503,13 +7503,13 @@
         <v>4</v>
       </c>
       <c r="F245">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G245">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I245" t="s">
         <v>11</v>
@@ -7532,13 +7532,13 @@
         <v>5</v>
       </c>
       <c r="F246">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G246">
         <v>0.6666666666666666</v>
       </c>
       <c r="H246">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I246" t="s">
         <v>11</v>
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="F248">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G248">
         <v>0.8333333333333334</v>
       </c>
       <c r="H248">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I248" t="s">
         <v>11</v>
@@ -7619,13 +7619,13 @@
         <v>8</v>
       </c>
       <c r="F249">
+        <v>0.375</v>
+      </c>
+      <c r="G249">
         <v>0.5</v>
       </c>
-      <c r="G249">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H249">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I249" t="s">
         <v>11</v>
@@ -7648,13 +7648,13 @@
         <v>9</v>
       </c>
       <c r="F250">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I250" t="s">
         <v>11</v>
@@ -7735,13 +7735,13 @@
         <v>2</v>
       </c>
       <c r="F253">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G253">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I253" t="s">
         <v>11</v>
@@ -7764,13 +7764,13 @@
         <v>3</v>
       </c>
       <c r="F254">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G254">
         <v>0.8</v>
       </c>
       <c r="H254">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I254" t="s">
         <v>11</v>
@@ -7793,13 +7793,13 @@
         <v>4</v>
       </c>
       <c r="F255">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G255">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>0.9767441860465116</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I255" t="s">
         <v>11</v>
@@ -7822,13 +7822,13 @@
         <v>5</v>
       </c>
       <c r="F256">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G256">
         <v>0.6666666666666666</v>
       </c>
       <c r="H256">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I256" t="s">
         <v>11</v>
@@ -7851,13 +7851,13 @@
         <v>6</v>
       </c>
       <c r="F257">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="G257">
         <v>0.8333333333333334</v>
       </c>
       <c r="H257">
-        <v>0.9302325581395348</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I257" t="s">
         <v>11</v>
@@ -7880,13 +7880,13 @@
         <v>7</v>
       </c>
       <c r="F258">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G258">
         <v>0.8333333333333334</v>
       </c>
       <c r="H258">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I258" t="s">
         <v>11</v>
@@ -7909,13 +7909,13 @@
         <v>8</v>
       </c>
       <c r="F259">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G259">
         <v>0.5</v>
       </c>
       <c r="H259">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I259" t="s">
         <v>11</v>
@@ -7970,10 +7970,10 @@
         <v>1</v>
       </c>
       <c r="G261">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H261">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I261" t="s">
         <v>11</v>
@@ -7996,13 +7996,13 @@
         <v>1</v>
       </c>
       <c r="F262">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I262" t="s">
         <v>11</v>
@@ -8025,13 +8025,13 @@
         <v>2</v>
       </c>
       <c r="F263">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="G263">
         <v>0.8</v>
       </c>
       <c r="H263">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I263" t="s">
         <v>11</v>
@@ -8083,13 +8083,13 @@
         <v>4</v>
       </c>
       <c r="F265">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G265">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I265" t="s">
         <v>11</v>
@@ -8112,13 +8112,13 @@
         <v>5</v>
       </c>
       <c r="F266">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G266">
         <v>0.6666666666666666</v>
       </c>
       <c r="H266">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I266" t="s">
         <v>11</v>
@@ -8141,13 +8141,13 @@
         <v>6</v>
       </c>
       <c r="F267">
-        <v>0.3846153846153846</v>
+        <v>0.625</v>
       </c>
       <c r="G267">
         <v>0.8333333333333334</v>
       </c>
       <c r="H267">
-        <v>0.8953488372093024</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I267" t="s">
         <v>11</v>
@@ -8199,13 +8199,13 @@
         <v>8</v>
       </c>
       <c r="F269">
-        <v>0.3636363636363637</v>
+        <v>0.375</v>
       </c>
       <c r="G269">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H269">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I269" t="s">
         <v>11</v>
@@ -8228,13 +8228,13 @@
         <v>9</v>
       </c>
       <c r="F270">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G270">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I270" t="s">
         <v>11</v>
@@ -8260,10 +8260,10 @@
         <v>1</v>
       </c>
       <c r="G271">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H271">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I271" t="s">
         <v>11</v>
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="F273">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="G273">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I273" t="s">
         <v>11</v>
@@ -8344,13 +8344,13 @@
         <v>3</v>
       </c>
       <c r="F274">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G274">
         <v>0.8</v>
       </c>
       <c r="H274">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I274" t="s">
         <v>11</v>
@@ -8431,13 +8431,13 @@
         <v>6</v>
       </c>
       <c r="F277">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G277">
         <v>0.8333333333333334</v>
       </c>
       <c r="H277">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I277" t="s">
         <v>11</v>
@@ -8460,13 +8460,13 @@
         <v>7</v>
       </c>
       <c r="F278">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G278">
         <v>0.8333333333333334</v>
       </c>
       <c r="H278">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I278" t="s">
         <v>11</v>
@@ -8489,13 +8489,13 @@
         <v>8</v>
       </c>
       <c r="F279">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G279">
         <v>0.6666666666666666</v>
       </c>
       <c r="H279">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I279" t="s">
         <v>11</v>
@@ -8518,13 +8518,13 @@
         <v>9</v>
       </c>
       <c r="F280">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G280">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>0.9176470588235294</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I280" t="s">
         <v>11</v>
@@ -8547,13 +8547,13 @@
         <v>10</v>
       </c>
       <c r="F281">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G281">
         <v>0.8</v>
       </c>
       <c r="H281">
-        <v>0.976470588235294</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="I281" t="s">
         <v>11</v>
@@ -8663,13 +8663,13 @@
         <v>4</v>
       </c>
       <c r="F285">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G285">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I285" t="s">
         <v>11</v>
@@ -8808,13 +8808,13 @@
         <v>9</v>
       </c>
       <c r="F290">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G290">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I290" t="s">
         <v>11</v>
@@ -8837,13 +8837,13 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G291">
         <v>0.8</v>
       </c>
       <c r="H291">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I291" t="s">
         <v>11</v>
@@ -8953,13 +8953,13 @@
         <v>4</v>
       </c>
       <c r="F295">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G295">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I295" t="s">
         <v>11</v>
@@ -9185,13 +9185,13 @@
         <v>2</v>
       </c>
       <c r="F303">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G303">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I303" t="s">
         <v>11</v>
@@ -9359,13 +9359,13 @@
         <v>8</v>
       </c>
       <c r="F309">
-        <v>0.2857142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G309">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H309">
-        <v>0.8953488372093024</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I309" t="s">
         <v>11</v>
@@ -9388,13 +9388,13 @@
         <v>9</v>
       </c>
       <c r="F310">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G310">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I310" t="s">
         <v>11</v>
@@ -9533,13 +9533,13 @@
         <v>4</v>
       </c>
       <c r="F315">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G315">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I315" t="s">
         <v>11</v>
@@ -9649,13 +9649,13 @@
         <v>8</v>
       </c>
       <c r="F319">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G319">
         <v>0.5</v>
       </c>
       <c r="H319">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I319" t="s">
         <v>11</v>
@@ -9707,13 +9707,13 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G321">
         <v>0.6</v>
       </c>
       <c r="H321">
-        <v>0.9647058823529412</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I321" t="s">
         <v>11</v>
@@ -9910,13 +9910,13 @@
         <v>7</v>
       </c>
       <c r="F328">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G328">
         <v>0.8333333333333334</v>
       </c>
       <c r="H328">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I328" t="s">
         <v>11</v>
@@ -9939,13 +9939,13 @@
         <v>8</v>
       </c>
       <c r="F329">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G329">
         <v>0.5</v>
       </c>
       <c r="H329">
-        <v>0.8953488372093024</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I329" t="s">
         <v>11</v>
@@ -9968,13 +9968,13 @@
         <v>9</v>
       </c>
       <c r="F330">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G330">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I330" t="s">
         <v>11</v>
@@ -10113,13 +10113,13 @@
         <v>4</v>
       </c>
       <c r="F335">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I335" t="s">
         <v>11</v>
@@ -10171,13 +10171,13 @@
         <v>6</v>
       </c>
       <c r="F337">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G337">
         <v>0.8333333333333334</v>
       </c>
       <c r="H337">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I337" t="s">
         <v>11</v>
@@ -10200,13 +10200,13 @@
         <v>7</v>
       </c>
       <c r="F338">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G338">
         <v>0.8333333333333334</v>
       </c>
       <c r="H338">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I338" t="s">
         <v>11</v>
@@ -10229,10 +10229,10 @@
         <v>8</v>
       </c>
       <c r="F339">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G339">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H339">
         <v>0.9069767441860463</v>
@@ -10345,13 +10345,13 @@
         <v>2</v>
       </c>
       <c r="F343">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H343">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I343" t="s">
         <v>11</v>
@@ -10403,13 +10403,13 @@
         <v>4</v>
       </c>
       <c r="F345">
-        <v>0.5454545454545454</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G345">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>0.9418604651162792</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I345" t="s">
         <v>11</v>
@@ -10461,13 +10461,13 @@
         <v>6</v>
       </c>
       <c r="F347">
-        <v>0.625</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G347">
         <v>0.8333333333333334</v>
       </c>
       <c r="H347">
-        <v>0.9534883720930232</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I347" t="s">
         <v>11</v>
@@ -10490,13 +10490,13 @@
         <v>7</v>
       </c>
       <c r="F348">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G348">
         <v>0.8333333333333334</v>
       </c>
       <c r="H348">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I348" t="s">
         <v>11</v>
@@ -10519,13 +10519,13 @@
         <v>8</v>
       </c>
       <c r="F349">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="G349">
         <v>0.5</v>
       </c>
       <c r="H349">
-        <v>0.8953488372093024</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I349" t="s">
         <v>11</v>
@@ -10548,13 +10548,13 @@
         <v>9</v>
       </c>
       <c r="F350">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G350">
         <v>1</v>
       </c>
       <c r="H350">
-        <v>0.9176470588235294</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I350" t="s">
         <v>11</v>
@@ -10580,10 +10580,10 @@
         <v>1</v>
       </c>
       <c r="G351">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H351">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I351" t="s">
         <v>11</v>
@@ -10635,13 +10635,13 @@
         <v>2</v>
       </c>
       <c r="F353">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G353">
         <v>1</v>
       </c>
       <c r="H353">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I353" t="s">
         <v>11</v>
@@ -10693,13 +10693,13 @@
         <v>4</v>
       </c>
       <c r="F355">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G355">
         <v>1</v>
       </c>
       <c r="H355">
-        <v>0.9069767441860463</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I355" t="s">
         <v>11</v>
@@ -10751,13 +10751,13 @@
         <v>6</v>
       </c>
       <c r="F357">
-        <v>0.625</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G357">
         <v>0.8333333333333334</v>
       </c>
       <c r="H357">
-        <v>0.9534883720930232</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I357" t="s">
         <v>11</v>
@@ -10780,13 +10780,13 @@
         <v>7</v>
       </c>
       <c r="F358">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G358">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H358">
-        <v>0.9767441860465116</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I358" t="s">
         <v>11</v>
@@ -10812,10 +10812,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G359">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H359">
-        <v>0.9069767441860463</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I359" t="s">
         <v>11</v>
@@ -10870,10 +10870,10 @@
         <v>1</v>
       </c>
       <c r="G361">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H361">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I361" t="s">
         <v>11</v>
@@ -10925,13 +10925,13 @@
         <v>2</v>
       </c>
       <c r="F363">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G363">
         <v>1</v>
       </c>
       <c r="H363">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I363" t="s">
         <v>11</v>
@@ -11099,13 +11099,13 @@
         <v>8</v>
       </c>
       <c r="F369">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G369">
         <v>0.5</v>
       </c>
       <c r="H369">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I369" t="s">
         <v>11</v>
@@ -11157,13 +11157,13 @@
         <v>10</v>
       </c>
       <c r="F371">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G371">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H371">
-        <v>0.9411764705882352</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I371" t="s">
         <v>11</v>
@@ -11273,13 +11273,13 @@
         <v>4</v>
       </c>
       <c r="F375">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G375">
         <v>1</v>
       </c>
       <c r="H375">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I375" t="s">
         <v>11</v>
@@ -11389,13 +11389,13 @@
         <v>8</v>
       </c>
       <c r="F379">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G379">
         <v>0.5</v>
       </c>
-      <c r="G379">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H379">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I379" t="s">
         <v>11</v>
@@ -11505,13 +11505,13 @@
         <v>2</v>
       </c>
       <c r="F383">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G383">
         <v>1</v>
       </c>
       <c r="H383">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I383" t="s">
         <v>11</v>
@@ -11534,13 +11534,13 @@
         <v>3</v>
       </c>
       <c r="F384">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G384">
         <v>0.8</v>
       </c>
       <c r="H384">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I384" t="s">
         <v>11</v>
@@ -11679,13 +11679,13 @@
         <v>8</v>
       </c>
       <c r="F389">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G389">
         <v>0.5</v>
       </c>
       <c r="H389">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I389" t="s">
         <v>11</v>
@@ -11708,13 +11708,13 @@
         <v>9</v>
       </c>
       <c r="F390">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G390">
         <v>1</v>
       </c>
       <c r="H390">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I390" t="s">
         <v>11</v>
@@ -11911,13 +11911,13 @@
         <v>6</v>
       </c>
       <c r="F397">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G397">
         <v>0.8333333333333334</v>
       </c>
       <c r="H397">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I397" t="s">
         <v>11</v>
@@ -11969,10 +11969,10 @@
         <v>8</v>
       </c>
       <c r="F399">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G399">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H399">
         <v>0.9069767441860463</v>
@@ -11998,13 +11998,13 @@
         <v>9</v>
       </c>
       <c r="F400">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G400">
         <v>1</v>
       </c>
       <c r="H400">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I400" t="s">
         <v>11</v>
@@ -12056,13 +12056,13 @@
         <v>1</v>
       </c>
       <c r="F402">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G402">
         <v>1</v>
       </c>
       <c r="H402">
-        <v>0.9534883720930232</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I402" t="s">
         <v>11</v>
@@ -12085,13 +12085,13 @@
         <v>2</v>
       </c>
       <c r="F403">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G403">
         <v>1</v>
       </c>
       <c r="H403">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I403" t="s">
         <v>11</v>
@@ -12143,13 +12143,13 @@
         <v>4</v>
       </c>
       <c r="F405">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G405">
         <v>1</v>
       </c>
       <c r="H405">
-        <v>0.9534883720930232</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I405" t="s">
         <v>11</v>
@@ -12259,13 +12259,13 @@
         <v>8</v>
       </c>
       <c r="F409">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G409">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H409">
-        <v>0.8953488372093024</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I409" t="s">
         <v>11</v>
@@ -12346,13 +12346,13 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G412">
         <v>1</v>
       </c>
       <c r="H412">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I412" t="s">
         <v>11</v>
@@ -12433,13 +12433,13 @@
         <v>4</v>
       </c>
       <c r="F415">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G415">
         <v>1</v>
       </c>
       <c r="H415">
-        <v>0.8953488372093024</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I415" t="s">
         <v>11</v>
@@ -12491,13 +12491,13 @@
         <v>6</v>
       </c>
       <c r="F417">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G417">
         <v>0.8333333333333334</v>
       </c>
       <c r="H417">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I417" t="s">
         <v>11</v>
@@ -12549,13 +12549,13 @@
         <v>8</v>
       </c>
       <c r="F419">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G419">
         <v>0.5</v>
       </c>
       <c r="H419">
-        <v>0.9069767441860463</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I419" t="s">
         <v>11</v>
@@ -12578,13 +12578,13 @@
         <v>9</v>
       </c>
       <c r="F420">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="G420">
         <v>1</v>
       </c>
       <c r="H420">
-        <v>0.9176470588235294</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I420" t="s">
         <v>11</v>
@@ -12636,13 +12636,13 @@
         <v>1</v>
       </c>
       <c r="F422">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G422">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H422">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I422" t="s">
         <v>11</v>
@@ -12694,13 +12694,13 @@
         <v>3</v>
       </c>
       <c r="F424">
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G424">
         <v>0.8</v>
       </c>
       <c r="H424">
-        <v>0.9534883720930232</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I424" t="s">
         <v>11</v>
@@ -12723,13 +12723,13 @@
         <v>4</v>
       </c>
       <c r="F425">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G425">
         <v>1</v>
       </c>
       <c r="H425">
-        <v>0.9302325581395348</v>
+        <v>0.8720930232558141</v>
       </c>
       <c r="I425" t="s">
         <v>11</v>
@@ -12752,13 +12752,13 @@
         <v>5</v>
       </c>
       <c r="F426">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G426">
         <v>0.6666666666666666</v>
       </c>
       <c r="H426">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I426" t="s">
         <v>11</v>
@@ -12781,13 +12781,13 @@
         <v>6</v>
       </c>
       <c r="F427">
-        <v>0.4545454545454545</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G427">
         <v>0.8333333333333334</v>
       </c>
       <c r="H427">
-        <v>0.9186046511627908</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I427" t="s">
         <v>11</v>
@@ -12839,13 +12839,13 @@
         <v>8</v>
       </c>
       <c r="F429">
+        <v>0.375</v>
+      </c>
+      <c r="G429">
         <v>0.5</v>
       </c>
-      <c r="G429">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H429">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I429" t="s">
         <v>11</v>
@@ -12868,13 +12868,13 @@
         <v>9</v>
       </c>
       <c r="F430">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G430">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H430">
-        <v>0.9411764705882352</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I430" t="s">
         <v>11</v>
@@ -12897,10 +12897,10 @@
         <v>10</v>
       </c>
       <c r="F431">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G431">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H431">
         <v>0.976470588235294</v>
@@ -12955,13 +12955,13 @@
         <v>2</v>
       </c>
       <c r="F433">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G433">
         <v>0.8</v>
       </c>
       <c r="H433">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I433" t="s">
         <v>11</v>
@@ -12984,13 +12984,13 @@
         <v>3</v>
       </c>
       <c r="F434">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G434">
         <v>0.8</v>
       </c>
       <c r="H434">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I434" t="s">
         <v>11</v>
@@ -13013,13 +13013,13 @@
         <v>4</v>
       </c>
       <c r="F435">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G435">
         <v>1</v>
       </c>
       <c r="H435">
-        <v>0.9651162790697676</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I435" t="s">
         <v>11</v>
@@ -13129,13 +13129,13 @@
         <v>8</v>
       </c>
       <c r="F439">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="G439">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H439">
-        <v>0.8720930232558141</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I439" t="s">
         <v>11</v>
@@ -13158,13 +13158,13 @@
         <v>9</v>
       </c>
       <c r="F440">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G440">
         <v>1</v>
       </c>
       <c r="H440">
-        <v>0.9411764705882352</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I440" t="s">
         <v>11</v>
@@ -13190,10 +13190,10 @@
         <v>1</v>
       </c>
       <c r="G441">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H441">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I441" t="s">
         <v>11</v>
@@ -13216,13 +13216,13 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>0.4285714285714285</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G442">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H442">
-        <v>0.9302325581395348</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I442" t="s">
         <v>11</v>
@@ -13245,13 +13245,13 @@
         <v>2</v>
       </c>
       <c r="F443">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G443">
         <v>1</v>
       </c>
       <c r="H443">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I443" t="s">
         <v>11</v>
@@ -13274,13 +13274,13 @@
         <v>3</v>
       </c>
       <c r="F444">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G444">
         <v>0.8</v>
       </c>
       <c r="H444">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I444" t="s">
         <v>11</v>
@@ -13361,13 +13361,13 @@
         <v>6</v>
       </c>
       <c r="F447">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="G447">
         <v>0.8333333333333334</v>
       </c>
       <c r="H447">
-        <v>0.9302325581395348</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I447" t="s">
         <v>11</v>
@@ -13419,13 +13419,13 @@
         <v>8</v>
       </c>
       <c r="F449">
-        <v>0.4285714285714285</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G449">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H449">
-        <v>0.9186046511627908</v>
+        <v>0.8720930232558141</v>
       </c>
       <c r="I449" t="s">
         <v>11</v>
@@ -13448,13 +13448,13 @@
         <v>9</v>
       </c>
       <c r="F450">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G450">
         <v>1</v>
       </c>
       <c r="H450">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I450" t="s">
         <v>11</v>
@@ -13477,13 +13477,13 @@
         <v>10</v>
       </c>
       <c r="F451">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G451">
         <v>0.8</v>
       </c>
       <c r="H451">
-        <v>0.9529411764705882</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I451" t="s">
         <v>11</v>
@@ -13680,13 +13680,13 @@
         <v>7</v>
       </c>
       <c r="F458">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G458">
         <v>0.8333333333333334</v>
       </c>
       <c r="H458">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I458" t="s">
         <v>11</v>
@@ -13709,10 +13709,10 @@
         <v>8</v>
       </c>
       <c r="F459">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G459">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H459">
         <v>0.9069767441860463</v>
@@ -13767,13 +13767,13 @@
         <v>10</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G461">
         <v>0.8</v>
       </c>
       <c r="H461">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I461" t="s">
         <v>11</v>
@@ -13883,13 +13883,13 @@
         <v>4</v>
       </c>
       <c r="F465">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G465">
         <v>1</v>
       </c>
       <c r="H465">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I465" t="s">
         <v>11</v>
@@ -13999,13 +13999,13 @@
         <v>8</v>
       </c>
       <c r="F469">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G469">
         <v>0.5</v>
       </c>
       <c r="H469">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I469" t="s">
         <v>11</v>
@@ -14231,13 +14231,13 @@
         <v>6</v>
       </c>
       <c r="F477">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G477">
         <v>0.8333333333333334</v>
       </c>
       <c r="H477">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I477" t="s">
         <v>11</v>
@@ -14289,13 +14289,13 @@
         <v>8</v>
       </c>
       <c r="F479">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G479">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H479">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I479" t="s">
         <v>11</v>
@@ -14318,13 +14318,13 @@
         <v>9</v>
       </c>
       <c r="F480">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G480">
         <v>1</v>
       </c>
       <c r="H480">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I480" t="s">
         <v>11</v>
@@ -14347,13 +14347,13 @@
         <v>10</v>
       </c>
       <c r="F481">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G481">
         <v>0.8</v>
       </c>
       <c r="H481">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I481" t="s">
         <v>11</v>
@@ -14405,13 +14405,13 @@
         <v>2</v>
       </c>
       <c r="F483">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G483">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H483">
-        <v>0.9534883720930232</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I483" t="s">
         <v>11</v>
@@ -14521,13 +14521,13 @@
         <v>6</v>
       </c>
       <c r="F487">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G487">
         <v>0.8333333333333334</v>
       </c>
       <c r="H487">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I487" t="s">
         <v>11</v>
@@ -14579,13 +14579,13 @@
         <v>8</v>
       </c>
       <c r="F489">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G489">
         <v>0.5</v>
       </c>
       <c r="H489">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I489" t="s">
         <v>11</v>
@@ -14608,13 +14608,13 @@
         <v>9</v>
       </c>
       <c r="F490">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G490">
         <v>1</v>
       </c>
       <c r="H490">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I490" t="s">
         <v>11</v>
@@ -14753,13 +14753,13 @@
         <v>4</v>
       </c>
       <c r="F495">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G495">
         <v>1</v>
       </c>
       <c r="H495">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I495" t="s">
         <v>11</v>
@@ -14782,13 +14782,13 @@
         <v>5</v>
       </c>
       <c r="F496">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G496">
         <v>0.6666666666666666</v>
       </c>
       <c r="H496">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I496" t="s">
         <v>11</v>
@@ -14811,13 +14811,13 @@
         <v>6</v>
       </c>
       <c r="F497">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="G497">
         <v>0.8333333333333334</v>
       </c>
       <c r="H497">
-        <v>0.9534883720930232</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I497" t="s">
         <v>11</v>
@@ -14840,13 +14840,13 @@
         <v>7</v>
       </c>
       <c r="F498">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G498">
         <v>0.8333333333333334</v>
       </c>
       <c r="H498">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I498" t="s">
         <v>11</v>
@@ -14927,13 +14927,13 @@
         <v>10</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G501">
         <v>0.8</v>
       </c>
       <c r="H501">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I501" t="s">
         <v>11</v>
@@ -14985,13 +14985,13 @@
         <v>2</v>
       </c>
       <c r="F503">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G503">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H503">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I503" t="s">
         <v>11</v>
@@ -15159,13 +15159,13 @@
         <v>8</v>
       </c>
       <c r="F509">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G509">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H509">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I509" t="s">
         <v>11</v>
@@ -15188,13 +15188,13 @@
         <v>9</v>
       </c>
       <c r="F510">
-        <v>0.4545454545454545</v>
+        <v>0.375</v>
       </c>
       <c r="G510">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H510">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I510" t="s">
         <v>11</v>
@@ -15217,13 +15217,13 @@
         <v>10</v>
       </c>
       <c r="F511">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G511">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H511">
-        <v>0.9647058823529412</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I511" t="s">
         <v>11</v>
@@ -15246,13 +15246,13 @@
         <v>1</v>
       </c>
       <c r="F512">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="G512">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H512">
-        <v>0.9418604651162792</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I512" t="s">
         <v>11</v>
@@ -15275,13 +15275,13 @@
         <v>2</v>
       </c>
       <c r="F513">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G513">
         <v>0.8</v>
       </c>
       <c r="H513">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I513" t="s">
         <v>11</v>
@@ -15333,13 +15333,13 @@
         <v>4</v>
       </c>
       <c r="F515">
-        <v>0.5454545454545454</v>
+        <v>0.75</v>
       </c>
       <c r="G515">
         <v>1</v>
       </c>
       <c r="H515">
-        <v>0.9418604651162792</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I515" t="s">
         <v>11</v>
@@ -15391,13 +15391,13 @@
         <v>6</v>
       </c>
       <c r="F517">
-        <v>0.4545454545454545</v>
+        <v>0.625</v>
       </c>
       <c r="G517">
         <v>0.8333333333333334</v>
       </c>
       <c r="H517">
-        <v>0.9186046511627908</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I517" t="s">
         <v>11</v>
@@ -15449,13 +15449,13 @@
         <v>8</v>
       </c>
       <c r="F519">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G519">
         <v>0.3333333333333333</v>
       </c>
       <c r="H519">
-        <v>0.8953488372093024</v>
+        <v>0.8720930232558141</v>
       </c>
       <c r="I519" t="s">
         <v>11</v>
@@ -15507,10 +15507,10 @@
         <v>10</v>
       </c>
       <c r="F521">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G521">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H521">
         <v>0.976470588235294</v>
@@ -15536,13 +15536,13 @@
         <v>1</v>
       </c>
       <c r="F522">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G522">
         <v>1</v>
       </c>
       <c r="H522">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I522" t="s">
         <v>11</v>
@@ -15565,13 +15565,13 @@
         <v>2</v>
       </c>
       <c r="F523">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G523">
         <v>1</v>
       </c>
       <c r="H523">
-        <v>0.9534883720930232</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I523" t="s">
         <v>11</v>
@@ -15623,13 +15623,13 @@
         <v>4</v>
       </c>
       <c r="F525">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G525">
         <v>1</v>
       </c>
       <c r="H525">
-        <v>0.9302325581395348</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I525" t="s">
         <v>11</v>
@@ -15681,13 +15681,13 @@
         <v>6</v>
       </c>
       <c r="F527">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G527">
         <v>0.8333333333333334</v>
       </c>
       <c r="H527">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I527" t="s">
         <v>11</v>
@@ -15710,13 +15710,13 @@
         <v>7</v>
       </c>
       <c r="F528">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G528">
         <v>0.8333333333333334</v>
       </c>
       <c r="H528">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I528" t="s">
         <v>11</v>
@@ -15739,13 +15739,13 @@
         <v>8</v>
       </c>
       <c r="F529">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G529">
         <v>0.5</v>
       </c>
       <c r="H529">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I529" t="s">
         <v>11</v>
@@ -15768,13 +15768,13 @@
         <v>9</v>
       </c>
       <c r="F530">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G530">
         <v>1</v>
       </c>
       <c r="H530">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I530" t="s">
         <v>11</v>
@@ -15797,13 +15797,13 @@
         <v>10</v>
       </c>
       <c r="F531">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G531">
         <v>0.8</v>
       </c>
       <c r="H531">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I531" t="s">
         <v>11</v>
@@ -15855,13 +15855,13 @@
         <v>2</v>
       </c>
       <c r="F533">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="G533">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H533">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I533" t="s">
         <v>11</v>
@@ -15913,13 +15913,13 @@
         <v>4</v>
       </c>
       <c r="F535">
-        <v>0.75</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G535">
         <v>1</v>
       </c>
       <c r="H535">
-        <v>0.9767441860465116</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I535" t="s">
         <v>11</v>
@@ -15942,13 +15942,13 @@
         <v>5</v>
       </c>
       <c r="F536">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G536">
         <v>0.6666666666666666</v>
       </c>
       <c r="H536">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I536" t="s">
         <v>11</v>
@@ -15971,13 +15971,13 @@
         <v>6</v>
       </c>
       <c r="F537">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="G537">
         <v>0.8333333333333334</v>
       </c>
       <c r="H537">
-        <v>0.8604651162790697</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I537" t="s">
         <v>11</v>
@@ -16029,13 +16029,13 @@
         <v>8</v>
       </c>
       <c r="F539">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G539">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H539">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I539" t="s">
         <v>11</v>
@@ -16058,13 +16058,13 @@
         <v>9</v>
       </c>
       <c r="F540">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G540">
         <v>1</v>
       </c>
       <c r="H540">
-        <v>0.9058823529411764</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I540" t="s">
         <v>11</v>
@@ -16087,13 +16087,13 @@
         <v>10</v>
       </c>
       <c r="F541">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G541">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H541">
-        <v>0.9529411764705882</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I541" t="s">
         <v>11</v>
@@ -16145,13 +16145,13 @@
         <v>2</v>
       </c>
       <c r="F543">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G543">
         <v>1</v>
       </c>
       <c r="H543">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I543" t="s">
         <v>11</v>
@@ -16174,13 +16174,13 @@
         <v>3</v>
       </c>
       <c r="F544">
-        <v>0.5714285714285714</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G544">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H544">
-        <v>0.9534883720930232</v>
+        <v>0.06976744186046513</v>
       </c>
       <c r="I544" t="s">
         <v>11</v>
@@ -16203,13 +16203,13 @@
         <v>4</v>
       </c>
       <c r="F545">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G545">
         <v>1</v>
       </c>
       <c r="H545">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I545" t="s">
         <v>11</v>
@@ -16609,13 +16609,13 @@
         <v>8</v>
       </c>
       <c r="F559">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G559">
         <v>0.5</v>
       </c>
       <c r="H559">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I559" t="s">
         <v>11</v>
@@ -16638,13 +16638,13 @@
         <v>9</v>
       </c>
       <c r="F560">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G560">
         <v>1</v>
       </c>
       <c r="H560">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I560" t="s">
         <v>11</v>
@@ -16667,13 +16667,13 @@
         <v>10</v>
       </c>
       <c r="F561">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G561">
         <v>0.8</v>
       </c>
       <c r="H561">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I561" t="s">
         <v>11</v>
@@ -16725,13 +16725,13 @@
         <v>2</v>
       </c>
       <c r="F563">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G563">
         <v>1</v>
       </c>
       <c r="H563">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I563" t="s">
         <v>11</v>
@@ -16783,13 +16783,13 @@
         <v>4</v>
       </c>
       <c r="F565">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G565">
         <v>1</v>
       </c>
       <c r="H565">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I565" t="s">
         <v>11</v>
@@ -16841,13 +16841,13 @@
         <v>6</v>
       </c>
       <c r="F567">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G567">
         <v>0.8333333333333334</v>
       </c>
       <c r="H567">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I567" t="s">
         <v>11</v>
@@ -16899,13 +16899,13 @@
         <v>8</v>
       </c>
       <c r="F569">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G569">
         <v>0.5</v>
       </c>
-      <c r="G569">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H569">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I569" t="s">
         <v>11</v>
@@ -16928,13 +16928,13 @@
         <v>9</v>
       </c>
       <c r="F570">
-        <v>0.4545454545454545</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G570">
         <v>1</v>
       </c>
       <c r="H570">
-        <v>0.9294117647058824</v>
+        <v>0.9058823529411764</v>
       </c>
       <c r="I570" t="s">
         <v>11</v>
@@ -16957,13 +16957,13 @@
         <v>10</v>
       </c>
       <c r="F571">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G571">
         <v>0.8</v>
       </c>
       <c r="H571">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I571" t="s">
         <v>11</v>
@@ -17015,13 +17015,13 @@
         <v>2</v>
       </c>
       <c r="F573">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="G573">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H573">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I573" t="s">
         <v>11</v>
@@ -17073,13 +17073,13 @@
         <v>4</v>
       </c>
       <c r="F575">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G575">
         <v>1</v>
       </c>
       <c r="H575">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I575" t="s">
         <v>11</v>
@@ -17131,13 +17131,13 @@
         <v>6</v>
       </c>
       <c r="F577">
-        <v>0.3846153846153846</v>
+        <v>0.625</v>
       </c>
       <c r="G577">
         <v>0.8333333333333334</v>
       </c>
       <c r="H577">
-        <v>0.8953488372093024</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I577" t="s">
         <v>11</v>
@@ -17189,13 +17189,13 @@
         <v>8</v>
       </c>
       <c r="F579">
-        <v>0.3333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G579">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H579">
-        <v>0.8953488372093024</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I579" t="s">
         <v>11</v>
@@ -17218,13 +17218,13 @@
         <v>9</v>
       </c>
       <c r="F580">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G580">
         <v>1</v>
       </c>
       <c r="H580">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I580" t="s">
         <v>11</v>
@@ -17247,13 +17247,13 @@
         <v>10</v>
       </c>
       <c r="F581">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G581">
         <v>0.8</v>
       </c>
       <c r="H581">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I581" t="s">
         <v>11</v>
@@ -17305,13 +17305,13 @@
         <v>2</v>
       </c>
       <c r="F583">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G583">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H583">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I583" t="s">
         <v>11</v>
@@ -17363,13 +17363,13 @@
         <v>4</v>
       </c>
       <c r="F585">
-        <v>0.75</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G585">
         <v>1</v>
       </c>
       <c r="H585">
-        <v>0.9767441860465116</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I585" t="s">
         <v>11</v>
@@ -17421,13 +17421,13 @@
         <v>6</v>
       </c>
       <c r="F587">
-        <v>0.4545454545454545</v>
+        <v>0.625</v>
       </c>
       <c r="G587">
         <v>0.8333333333333334</v>
       </c>
       <c r="H587">
-        <v>0.9186046511627908</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I587" t="s">
         <v>11</v>
@@ -17450,10 +17450,10 @@
         <v>7</v>
       </c>
       <c r="F588">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="G588">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H588">
         <v>0.9651162790697676</v>
@@ -17479,13 +17479,13 @@
         <v>8</v>
       </c>
       <c r="F589">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G589">
         <v>0.5</v>
       </c>
       <c r="H589">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I589" t="s">
         <v>11</v>
@@ -17508,13 +17508,13 @@
         <v>9</v>
       </c>
       <c r="F590">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G590">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H590">
-        <v>0.8941176470588236</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I590" t="s">
         <v>11</v>
@@ -17537,10 +17537,10 @@
         <v>10</v>
       </c>
       <c r="F591">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G591">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H591">
         <v>0.976470588235294</v>
@@ -17566,13 +17566,13 @@
         <v>1</v>
       </c>
       <c r="F592">
-        <v>0.5555555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H592">
-        <v>0.9534883720930232</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I592" t="s">
         <v>11</v>
@@ -17595,13 +17595,13 @@
         <v>2</v>
       </c>
       <c r="F593">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G593">
         <v>0.8</v>
       </c>
       <c r="H593">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I593" t="s">
         <v>11</v>
@@ -17653,13 +17653,13 @@
         <v>4</v>
       </c>
       <c r="F595">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G595">
         <v>1</v>
       </c>
       <c r="H595">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I595" t="s">
         <v>11</v>
@@ -17769,13 +17769,13 @@
         <v>8</v>
       </c>
       <c r="F599">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G599">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H599">
-        <v>0.9186046511627908</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I599" t="s">
         <v>11</v>
@@ -17798,13 +17798,13 @@
         <v>9</v>
       </c>
       <c r="F600">
-        <v>0.4545454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="G600">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H600">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I600" t="s">
         <v>11</v>
@@ -17827,10 +17827,10 @@
         <v>10</v>
       </c>
       <c r="F601">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G601">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H601">
         <v>0.976470588235294</v>
@@ -17856,13 +17856,13 @@
         <v>1</v>
       </c>
       <c r="F602">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G602">
         <v>1</v>
       </c>
       <c r="H602">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I602" t="s">
         <v>11</v>
@@ -17885,13 +17885,13 @@
         <v>2</v>
       </c>
       <c r="F603">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G603">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H603">
-        <v>0.9767441860465116</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I603" t="s">
         <v>11</v>
@@ -17914,13 +17914,13 @@
         <v>3</v>
       </c>
       <c r="F604">
-        <v>0.5714285714285714</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="G604">
         <v>0.8</v>
       </c>
       <c r="H604">
-        <v>0.9534883720930232</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I604" t="s">
         <v>11</v>
@@ -17943,13 +17943,13 @@
         <v>4</v>
       </c>
       <c r="F605">
-        <v>0.4615384615384616</v>
+        <v>0.75</v>
       </c>
       <c r="G605">
         <v>1</v>
       </c>
       <c r="H605">
-        <v>0.9186046511627908</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I605" t="s">
         <v>11</v>
@@ -18001,13 +18001,13 @@
         <v>6</v>
       </c>
       <c r="F607">
-        <v>0.3846153846153846</v>
+        <v>0.625</v>
       </c>
       <c r="G607">
         <v>0.8333333333333334</v>
       </c>
       <c r="H607">
-        <v>0.8953488372093024</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I607" t="s">
         <v>11</v>
@@ -18030,13 +18030,13 @@
         <v>7</v>
       </c>
       <c r="F608">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G608">
         <v>0.8333333333333334</v>
       </c>
       <c r="H608">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I608" t="s">
         <v>11</v>
@@ -18059,13 +18059,13 @@
         <v>8</v>
       </c>
       <c r="F609">
-        <v>0.3636363636363637</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G609">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H609">
-        <v>0.8953488372093024</v>
+        <v>0.8720930232558141</v>
       </c>
       <c r="I609" t="s">
         <v>11</v>
@@ -18088,13 +18088,13 @@
         <v>9</v>
       </c>
       <c r="F610">
-        <v>0.5</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="G610">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H610">
-        <v>0.9411764705882352</v>
+        <v>0.9058823529411764</v>
       </c>
       <c r="I610" t="s">
         <v>11</v>
@@ -18175,13 +18175,13 @@
         <v>2</v>
       </c>
       <c r="F613">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G613">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H613">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I613" t="s">
         <v>11</v>
@@ -18233,13 +18233,13 @@
         <v>4</v>
       </c>
       <c r="F615">
-        <v>0.5454545454545454</v>
+        <v>0.75</v>
       </c>
       <c r="G615">
         <v>1</v>
       </c>
       <c r="H615">
-        <v>0.9418604651162792</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I615" t="s">
         <v>11</v>
@@ -18262,13 +18262,13 @@
         <v>5</v>
       </c>
       <c r="F616">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G616">
         <v>0.6666666666666666</v>
       </c>
       <c r="H616">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I616" t="s">
         <v>11</v>
@@ -18291,13 +18291,13 @@
         <v>6</v>
       </c>
       <c r="F617">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G617">
         <v>0.8333333333333334</v>
       </c>
       <c r="H617">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I617" t="s">
         <v>11</v>
@@ -18352,10 +18352,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G619">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H619">
-        <v>0.9069767441860463</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I619" t="s">
         <v>11</v>
@@ -18378,13 +18378,13 @@
         <v>9</v>
       </c>
       <c r="F620">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H620">
-        <v>0.9058823529411764</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I620" t="s">
         <v>11</v>
@@ -18407,10 +18407,10 @@
         <v>10</v>
       </c>
       <c r="F621">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G621">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H621">
         <v>0.976470588235294</v>
@@ -18439,7 +18439,7 @@
         <v>0.5</v>
       </c>
       <c r="G622">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H622">
         <v>0.9418604651162792</v>
@@ -18523,13 +18523,13 @@
         <v>4</v>
       </c>
       <c r="F625">
-        <v>0.4615384615384616</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G625">
         <v>1</v>
       </c>
       <c r="H625">
-        <v>0.9186046511627908</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I625" t="s">
         <v>11</v>
@@ -18668,13 +18668,13 @@
         <v>9</v>
       </c>
       <c r="F630">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G630">
         <v>1</v>
       </c>
       <c r="H630">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I630" t="s">
         <v>11</v>
@@ -18755,13 +18755,13 @@
         <v>2</v>
       </c>
       <c r="F633">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G633">
         <v>1</v>
       </c>
       <c r="H633">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I633" t="s">
         <v>11</v>
@@ -18900,13 +18900,13 @@
         <v>7</v>
       </c>
       <c r="F638">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G638">
         <v>0.8333333333333334</v>
       </c>
       <c r="H638">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I638" t="s">
         <v>11</v>
@@ -18929,13 +18929,13 @@
         <v>8</v>
       </c>
       <c r="F639">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="G639">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H639">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I639" t="s">
         <v>11</v>
@@ -18987,13 +18987,13 @@
         <v>10</v>
       </c>
       <c r="F641">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G641">
         <v>0.8</v>
       </c>
       <c r="H641">
-        <v>0.9647058823529412</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I641" t="s">
         <v>11</v>
@@ -19045,13 +19045,13 @@
         <v>2</v>
       </c>
       <c r="F643">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G643">
         <v>1</v>
       </c>
       <c r="H643">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I643" t="s">
         <v>11</v>
@@ -19103,13 +19103,13 @@
         <v>4</v>
       </c>
       <c r="F645">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G645">
         <v>1</v>
       </c>
       <c r="H645">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I645" t="s">
         <v>11</v>
@@ -19161,13 +19161,13 @@
         <v>6</v>
       </c>
       <c r="F647">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G647">
         <v>0.8333333333333334</v>
       </c>
       <c r="H647">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I647" t="s">
         <v>11</v>
@@ -19306,13 +19306,13 @@
         <v>1</v>
       </c>
       <c r="F652">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G652">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H652">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I652" t="s">
         <v>11</v>
@@ -19335,10 +19335,10 @@
         <v>2</v>
       </c>
       <c r="F653">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G653">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H653">
         <v>0.9767441860465116</v>
@@ -19480,13 +19480,13 @@
         <v>7</v>
       </c>
       <c r="F658">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G658">
         <v>0.8333333333333334</v>
       </c>
       <c r="H658">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I658" t="s">
         <v>11</v>
@@ -19625,10 +19625,10 @@
         <v>2</v>
       </c>
       <c r="F663">
-        <v>0.7142857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="G663">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H663">
         <v>0.9767441860465116</v>
@@ -19654,13 +19654,13 @@
         <v>3</v>
       </c>
       <c r="F664">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G664">
         <v>0.8</v>
       </c>
       <c r="H664">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I664" t="s">
         <v>11</v>
@@ -19683,13 +19683,13 @@
         <v>4</v>
       </c>
       <c r="F665">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G665">
         <v>1</v>
       </c>
       <c r="H665">
-        <v>0.9767441860465116</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I665" t="s">
         <v>11</v>
@@ -19712,13 +19712,13 @@
         <v>5</v>
       </c>
       <c r="F666">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G666">
         <v>0.6666666666666666</v>
       </c>
       <c r="H666">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I666" t="s">
         <v>11</v>
@@ -19741,13 +19741,13 @@
         <v>6</v>
       </c>
       <c r="F667">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G667">
         <v>0.8333333333333334</v>
       </c>
       <c r="H667">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I667" t="s">
         <v>11</v>
@@ -19770,13 +19770,13 @@
         <v>7</v>
       </c>
       <c r="F668">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G668">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H668">
-        <v>0.9534883720930232</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I668" t="s">
         <v>11</v>
@@ -19799,13 +19799,13 @@
         <v>8</v>
       </c>
       <c r="F669">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G669">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H669">
-        <v>0.9534883720930232</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I669" t="s">
         <v>11</v>
@@ -19857,13 +19857,13 @@
         <v>10</v>
       </c>
       <c r="F671">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G671">
         <v>0.8</v>
       </c>
       <c r="H671">
-        <v>0.976470588235294</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="I671" t="s">
         <v>11</v>
@@ -19915,13 +19915,13 @@
         <v>2</v>
       </c>
       <c r="F673">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G673">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H673">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I673" t="s">
         <v>11</v>
@@ -19973,13 +19973,13 @@
         <v>4</v>
       </c>
       <c r="F675">
-        <v>0.8571428571428571</v>
+        <v>0.4</v>
       </c>
       <c r="G675">
         <v>1</v>
       </c>
       <c r="H675">
-        <v>0.9883720930232558</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I675" t="s">
         <v>11</v>
@@ -20002,13 +20002,13 @@
         <v>5</v>
       </c>
       <c r="F676">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G676">
         <v>0.6666666666666666</v>
       </c>
       <c r="H676">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I676" t="s">
         <v>11</v>
@@ -20031,13 +20031,13 @@
         <v>6</v>
       </c>
       <c r="F677">
-        <v>0.625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G677">
         <v>0.8333333333333334</v>
       </c>
       <c r="H677">
-        <v>0.9534883720930232</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="I677" t="s">
         <v>11</v>
@@ -20060,13 +20060,13 @@
         <v>7</v>
       </c>
       <c r="F678">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G678">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H678">
-        <v>0.9767441860465116</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I678" t="s">
         <v>11</v>
@@ -20089,10 +20089,10 @@
         <v>8</v>
       </c>
       <c r="F679">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G679">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H679">
         <v>0.9069767441860463</v>
@@ -20147,13 +20147,13 @@
         <v>10</v>
       </c>
       <c r="F681">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G681">
         <v>0.8</v>
       </c>
       <c r="H681">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I681" t="s">
         <v>11</v>
@@ -20176,13 +20176,13 @@
         <v>1</v>
       </c>
       <c r="F682">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G682">
         <v>1</v>
       </c>
       <c r="H682">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I682" t="s">
         <v>11</v>
@@ -20205,13 +20205,13 @@
         <v>2</v>
       </c>
       <c r="F683">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G683">
         <v>1</v>
       </c>
       <c r="H683">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I683" t="s">
         <v>11</v>
@@ -20234,13 +20234,13 @@
         <v>3</v>
       </c>
       <c r="F684">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G684">
         <v>0.8</v>
       </c>
       <c r="H684">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I684" t="s">
         <v>11</v>
@@ -20350,13 +20350,13 @@
         <v>7</v>
       </c>
       <c r="F688">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G688">
         <v>0.8333333333333334</v>
       </c>
       <c r="H688">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I688" t="s">
         <v>11</v>
@@ -20379,13 +20379,13 @@
         <v>8</v>
       </c>
       <c r="F689">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G689">
         <v>0.3333333333333333</v>
       </c>
       <c r="H689">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I689" t="s">
         <v>11</v>
@@ -20466,13 +20466,13 @@
         <v>1</v>
       </c>
       <c r="F692">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G692">
         <v>1</v>
       </c>
       <c r="H692">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I692" t="s">
         <v>11</v>
@@ -20495,13 +20495,13 @@
         <v>2</v>
       </c>
       <c r="F693">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G693">
         <v>1</v>
       </c>
       <c r="H693">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I693" t="s">
         <v>11</v>
@@ -20553,13 +20553,13 @@
         <v>4</v>
       </c>
       <c r="F695">
-        <v>0.75</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G695">
         <v>1</v>
       </c>
       <c r="H695">
-        <v>0.9767441860465116</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I695" t="s">
         <v>11</v>
@@ -20582,13 +20582,13 @@
         <v>5</v>
       </c>
       <c r="F696">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G696">
         <v>0.6666666666666666</v>
       </c>
       <c r="H696">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I696" t="s">
         <v>11</v>
@@ -20669,13 +20669,13 @@
         <v>8</v>
       </c>
       <c r="F699">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G699">
         <v>0.5</v>
       </c>
       <c r="H699">
-        <v>0.9302325581395348</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="I699" t="s">
         <v>11</v>
@@ -20698,13 +20698,13 @@
         <v>9</v>
       </c>
       <c r="F700">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="G700">
         <v>1</v>
       </c>
       <c r="H700">
-        <v>0.8941176470588236</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I700" t="s">
         <v>11</v>
@@ -20727,13 +20727,13 @@
         <v>10</v>
       </c>
       <c r="F701">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G701">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H701">
-        <v>0.9647058823529412</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I701" t="s">
         <v>11</v>
@@ -20785,13 +20785,13 @@
         <v>2</v>
       </c>
       <c r="F703">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G703">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H703">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I703" t="s">
         <v>11</v>
@@ -20843,13 +20843,13 @@
         <v>4</v>
       </c>
       <c r="F705">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="G705">
         <v>1</v>
       </c>
       <c r="H705">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I705" t="s">
         <v>11</v>
@@ -20901,13 +20901,13 @@
         <v>6</v>
       </c>
       <c r="F707">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G707">
         <v>0.8333333333333334</v>
       </c>
       <c r="H707">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I707" t="s">
         <v>11</v>
@@ -20959,13 +20959,13 @@
         <v>8</v>
       </c>
       <c r="F709">
-        <v>0.2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G709">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H709">
-        <v>0.8953488372093024</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I709" t="s">
         <v>11</v>
@@ -20988,13 +20988,13 @@
         <v>9</v>
       </c>
       <c r="F710">
-        <v>0.4545454545454545</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G710">
         <v>1</v>
       </c>
       <c r="H710">
-        <v>0.9294117647058824</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="I710" t="s">
         <v>11</v>
@@ -21020,10 +21020,10 @@
         <v>1</v>
       </c>
       <c r="G711">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H711">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I711" t="s">
         <v>11</v>
@@ -21075,13 +21075,13 @@
         <v>2</v>
       </c>
       <c r="F713">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G713">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H713">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I713" t="s">
         <v>11</v>
@@ -21133,13 +21133,13 @@
         <v>4</v>
       </c>
       <c r="F715">
-        <v>0.75</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G715">
         <v>1</v>
       </c>
       <c r="H715">
-        <v>0.9767441860465116</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I715" t="s">
         <v>11</v>
@@ -21162,13 +21162,13 @@
         <v>5</v>
       </c>
       <c r="F716">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G716">
         <v>0.6666666666666666</v>
       </c>
       <c r="H716">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I716" t="s">
         <v>11</v>
@@ -21191,13 +21191,13 @@
         <v>6</v>
       </c>
       <c r="F717">
-        <v>0.3846153846153846</v>
+        <v>0.625</v>
       </c>
       <c r="G717">
         <v>0.8333333333333334</v>
       </c>
       <c r="H717">
-        <v>0.8953488372093024</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I717" t="s">
         <v>11</v>
@@ -21249,13 +21249,13 @@
         <v>8</v>
       </c>
       <c r="F719">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G719">
         <v>0.5</v>
       </c>
-      <c r="G719">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H719">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I719" t="s">
         <v>11</v>
@@ -21278,13 +21278,13 @@
         <v>9</v>
       </c>
       <c r="F720">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G720">
         <v>1</v>
       </c>
       <c r="H720">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I720" t="s">
         <v>11</v>
@@ -21336,13 +21336,13 @@
         <v>1</v>
       </c>
       <c r="F722">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G722">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H722">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I722" t="s">
         <v>11</v>
@@ -21423,13 +21423,13 @@
         <v>4</v>
       </c>
       <c r="F725">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G725">
         <v>1</v>
       </c>
       <c r="H725">
-        <v>0.9883720930232558</v>
+        <v>1</v>
       </c>
       <c r="I725" t="s">
         <v>11</v>
@@ -21452,13 +21452,13 @@
         <v>5</v>
       </c>
       <c r="F726">
-        <v>0.3636363636363637</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G726">
         <v>0.6666666666666666</v>
       </c>
       <c r="H726">
-        <v>0.8953488372093024</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I726" t="s">
         <v>11</v>
@@ -21481,13 +21481,13 @@
         <v>6</v>
       </c>
       <c r="F727">
-        <v>0.3571428571428572</v>
+        <v>0.6</v>
       </c>
       <c r="G727">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H727">
-        <v>0.8837209302325582</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I727" t="s">
         <v>11</v>
@@ -21539,10 +21539,10 @@
         <v>8</v>
       </c>
       <c r="F729">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G729">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H729">
         <v>0.9186046511627908</v>
@@ -21655,13 +21655,13 @@
         <v>2</v>
       </c>
       <c r="F733">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G733">
         <v>1</v>
       </c>
       <c r="H733">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I733" t="s">
         <v>11</v>
@@ -21684,13 +21684,13 @@
         <v>3</v>
       </c>
       <c r="F734">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G734">
         <v>0.8</v>
       </c>
       <c r="H734">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I734" t="s">
         <v>11</v>
@@ -21713,13 +21713,13 @@
         <v>4</v>
       </c>
       <c r="F735">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G735">
         <v>1</v>
       </c>
       <c r="H735">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I735" t="s">
         <v>11</v>
@@ -21742,13 +21742,13 @@
         <v>5</v>
       </c>
       <c r="F736">
-        <v>0.4444444444444444</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="G736">
         <v>0.6666666666666666</v>
       </c>
       <c r="H736">
-        <v>0.9186046511627908</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I736" t="s">
         <v>11</v>
@@ -21916,13 +21916,13 @@
         <v>1</v>
       </c>
       <c r="F742">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G742">
         <v>1</v>
       </c>
       <c r="H742">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I742" t="s">
         <v>11</v>
@@ -21945,13 +21945,13 @@
         <v>2</v>
       </c>
       <c r="F743">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G743">
         <v>1</v>
       </c>
       <c r="H743">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I743" t="s">
         <v>11</v>
@@ -22148,13 +22148,13 @@
         <v>9</v>
       </c>
       <c r="F750">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G750">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H750">
-        <v>0.9176470588235294</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I750" t="s">
         <v>11</v>
@@ -22235,13 +22235,13 @@
         <v>2</v>
       </c>
       <c r="F753">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G753">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H753">
-        <v>0.9651162790697676</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I753" t="s">
         <v>11</v>
@@ -22293,13 +22293,13 @@
         <v>4</v>
       </c>
       <c r="F755">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G755">
         <v>1</v>
       </c>
       <c r="H755">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I755" t="s">
         <v>11</v>
@@ -22322,13 +22322,13 @@
         <v>5</v>
       </c>
       <c r="F756">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G756">
         <v>0.6666666666666666</v>
       </c>
       <c r="H756">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I756" t="s">
         <v>11</v>
@@ -22438,13 +22438,13 @@
         <v>9</v>
       </c>
       <c r="F760">
-        <v>0.4545454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="G760">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H760">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I760" t="s">
         <v>11</v>
@@ -22467,13 +22467,13 @@
         <v>10</v>
       </c>
       <c r="F761">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G761">
         <v>0.8</v>
       </c>
       <c r="H761">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I761" t="s">
         <v>11</v>
@@ -22525,10 +22525,10 @@
         <v>2</v>
       </c>
       <c r="F763">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G763">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H763">
         <v>0.9651162790697676</v>
@@ -22583,13 +22583,13 @@
         <v>4</v>
       </c>
       <c r="F765">
-        <v>0.06976744186046513</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G765">
         <v>1</v>
       </c>
       <c r="H765">
-        <v>0.06976744186046513</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I765" t="s">
         <v>11</v>
@@ -22612,13 +22612,13 @@
         <v>5</v>
       </c>
       <c r="F766">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G766">
         <v>0.6666666666666666</v>
       </c>
       <c r="H766">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I766" t="s">
         <v>11</v>
@@ -22699,13 +22699,13 @@
         <v>8</v>
       </c>
       <c r="F769">
+        <v>0.375</v>
+      </c>
+      <c r="G769">
         <v>0.5</v>
       </c>
-      <c r="G769">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H769">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I769" t="s">
         <v>11</v>
@@ -22757,13 +22757,13 @@
         <v>10</v>
       </c>
       <c r="F771">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G771">
         <v>0.8</v>
       </c>
       <c r="H771">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I771" t="s">
         <v>11</v>
@@ -22815,13 +22815,13 @@
         <v>2</v>
       </c>
       <c r="F773">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="G773">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H773">
-        <v>0.9767441860465116</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I773" t="s">
         <v>11</v>
@@ -22873,13 +22873,13 @@
         <v>4</v>
       </c>
       <c r="F775">
-        <v>0.6</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G775">
         <v>1</v>
       </c>
       <c r="H775">
-        <v>0.9534883720930232</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I775" t="s">
         <v>11</v>
@@ -22931,13 +22931,13 @@
         <v>6</v>
       </c>
       <c r="F777">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G777">
         <v>0.8333333333333334</v>
       </c>
       <c r="H777">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I777" t="s">
         <v>11</v>
@@ -22989,13 +22989,13 @@
         <v>8</v>
       </c>
       <c r="F779">
-        <v>0.4285714285714285</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G779">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H779">
-        <v>0.9186046511627908</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I779" t="s">
         <v>11</v>
@@ -23018,13 +23018,13 @@
         <v>9</v>
       </c>
       <c r="F780">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G780">
         <v>1</v>
       </c>
       <c r="H780">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I780" t="s">
         <v>11</v>
@@ -23047,13 +23047,13 @@
         <v>10</v>
       </c>
       <c r="F781">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G781">
         <v>0.8</v>
       </c>
       <c r="H781">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I781" t="s">
         <v>11</v>
@@ -23105,13 +23105,13 @@
         <v>2</v>
       </c>
       <c r="F783">
-        <v>0.05813953488372092</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G783">
         <v>1</v>
       </c>
       <c r="H783">
-        <v>0.05813953488372092</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I783" t="s">
         <v>11</v>
@@ -23163,13 +23163,13 @@
         <v>4</v>
       </c>
       <c r="F785">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G785">
         <v>1</v>
       </c>
       <c r="H785">
-        <v>0.9534883720930232</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I785" t="s">
         <v>11</v>
@@ -23192,13 +23192,13 @@
         <v>5</v>
       </c>
       <c r="F786">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G786">
         <v>0.6666666666666666</v>
       </c>
       <c r="H786">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I786" t="s">
         <v>11</v>
@@ -23279,13 +23279,13 @@
         <v>8</v>
       </c>
       <c r="F789">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G789">
         <v>0.5</v>
       </c>
-      <c r="G789">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H789">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I789" t="s">
         <v>11</v>
@@ -23308,13 +23308,13 @@
         <v>9</v>
       </c>
       <c r="F790">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G790">
         <v>1</v>
       </c>
       <c r="H790">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I790" t="s">
         <v>11</v>
@@ -23366,13 +23366,13 @@
         <v>1</v>
       </c>
       <c r="F792">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G792">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H792">
-        <v>0.9534883720930232</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I792" t="s">
         <v>11</v>
@@ -23395,13 +23395,13 @@
         <v>2</v>
       </c>
       <c r="F793">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G793">
         <v>1</v>
       </c>
       <c r="H793">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I793" t="s">
         <v>11</v>
@@ -23424,13 +23424,13 @@
         <v>3</v>
       </c>
       <c r="F794">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G794">
         <v>0.8</v>
       </c>
       <c r="H794">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I794" t="s">
         <v>11</v>
@@ -23453,13 +23453,13 @@
         <v>4</v>
       </c>
       <c r="F795">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G795">
         <v>1</v>
       </c>
       <c r="H795">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I795" t="s">
         <v>11</v>
@@ -23482,13 +23482,13 @@
         <v>5</v>
       </c>
       <c r="F796">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G796">
         <v>0.6666666666666666</v>
       </c>
       <c r="H796">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I796" t="s">
         <v>11</v>
@@ -23511,13 +23511,13 @@
         <v>6</v>
       </c>
       <c r="F797">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G797">
         <v>0.8333333333333334</v>
       </c>
       <c r="H797">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I797" t="s">
         <v>11</v>
@@ -23569,13 +23569,13 @@
         <v>8</v>
       </c>
       <c r="F799">
-        <v>0.4444444444444444</v>
+        <v>0.375</v>
       </c>
       <c r="G799">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H799">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I799" t="s">
         <v>11</v>
@@ -23598,13 +23598,13 @@
         <v>9</v>
       </c>
       <c r="F800">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G800">
         <v>1</v>
       </c>
       <c r="H800">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I800" t="s">
         <v>11</v>
@@ -23627,13 +23627,13 @@
         <v>10</v>
       </c>
       <c r="F801">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G801">
         <v>0.8</v>
       </c>
       <c r="H801">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I801" t="s">
         <v>11</v>
@@ -23656,13 +23656,13 @@
         <v>1</v>
       </c>
       <c r="F802">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G802">
         <v>1</v>
       </c>
       <c r="H802">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I802" t="s">
         <v>11</v>
@@ -23714,13 +23714,13 @@
         <v>3</v>
       </c>
       <c r="F804">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G804">
         <v>0.8</v>
       </c>
       <c r="H804">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I804" t="s">
         <v>11</v>
@@ -23743,13 +23743,13 @@
         <v>4</v>
       </c>
       <c r="F805">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G805">
         <v>1</v>
       </c>
       <c r="H805">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I805" t="s">
         <v>11</v>
@@ -23801,13 +23801,13 @@
         <v>6</v>
       </c>
       <c r="F807">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G807">
         <v>0.8333333333333334</v>
       </c>
       <c r="H807">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I807" t="s">
         <v>11</v>
@@ -23859,13 +23859,13 @@
         <v>8</v>
       </c>
       <c r="F809">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G809">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H809">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I809" t="s">
         <v>11</v>
@@ -24004,13 +24004,13 @@
         <v>3</v>
       </c>
       <c r="F814">
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="G814">
         <v>0.8</v>
       </c>
       <c r="H814">
-        <v>0.9534883720930232</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I814" t="s">
         <v>11</v>
@@ -24062,13 +24062,13 @@
         <v>5</v>
       </c>
       <c r="F816">
-        <v>0.3636363636363637</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G816">
         <v>0.6666666666666666</v>
       </c>
       <c r="H816">
-        <v>0.8953488372093024</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I816" t="s">
         <v>11</v>
@@ -24120,13 +24120,13 @@
         <v>7</v>
       </c>
       <c r="F818">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G818">
         <v>0.8333333333333334</v>
       </c>
       <c r="H818">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I818" t="s">
         <v>11</v>
@@ -24152,7 +24152,7 @@
         <v>0.5</v>
       </c>
       <c r="G819">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H819">
         <v>0.9302325581395348</v>
@@ -24439,13 +24439,13 @@
         <v>8</v>
       </c>
       <c r="F829">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G829">
         <v>0.5</v>
       </c>
       <c r="H829">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I829" t="s">
         <v>11</v>
@@ -24497,13 +24497,13 @@
         <v>10</v>
       </c>
       <c r="F831">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G831">
         <v>0.8</v>
       </c>
       <c r="H831">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I831" t="s">
         <v>11</v>
@@ -24526,13 +24526,13 @@
         <v>1</v>
       </c>
       <c r="F832">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G832">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H832">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I832" t="s">
         <v>11</v>
@@ -24555,13 +24555,13 @@
         <v>2</v>
       </c>
       <c r="F833">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="G833">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H833">
-        <v>0.9651162790697676</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I833" t="s">
         <v>11</v>
@@ -24729,13 +24729,13 @@
         <v>8</v>
       </c>
       <c r="F839">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G839">
         <v>0.6666666666666666</v>
       </c>
       <c r="H839">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I839" t="s">
         <v>11</v>
@@ -24758,13 +24758,13 @@
         <v>9</v>
       </c>
       <c r="F840">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G840">
         <v>1</v>
       </c>
       <c r="H840">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I840" t="s">
         <v>11</v>
@@ -24787,13 +24787,13 @@
         <v>10</v>
       </c>
       <c r="F841">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G841">
         <v>0.8</v>
       </c>
       <c r="H841">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I841" t="s">
         <v>11</v>
@@ -25019,10 +25019,10 @@
         <v>8</v>
       </c>
       <c r="F849">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="G849">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H849">
         <v>0.9186046511627908</v>
@@ -25077,13 +25077,13 @@
         <v>10</v>
       </c>
       <c r="F851">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G851">
         <v>0.8</v>
       </c>
       <c r="H851">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I851" t="s">
         <v>11</v>
@@ -25106,13 +25106,13 @@
         <v>1</v>
       </c>
       <c r="F852">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G852">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H852">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I852" t="s">
         <v>11</v>
@@ -25222,13 +25222,13 @@
         <v>5</v>
       </c>
       <c r="F856">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G856">
         <v>0.6666666666666666</v>
       </c>
       <c r="H856">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I856" t="s">
         <v>11</v>
@@ -25309,13 +25309,13 @@
         <v>8</v>
       </c>
       <c r="F859">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G859">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H859">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I859" t="s">
         <v>11</v>
@@ -25338,13 +25338,13 @@
         <v>9</v>
       </c>
       <c r="F860">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G860">
         <v>1</v>
       </c>
       <c r="H860">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I860" t="s">
         <v>11</v>
@@ -25396,13 +25396,13 @@
         <v>1</v>
       </c>
       <c r="F862">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G862">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H862">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I862" t="s">
         <v>11</v>
@@ -25599,13 +25599,13 @@
         <v>8</v>
       </c>
       <c r="F869">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G869">
         <v>0.3333333333333333</v>
       </c>
       <c r="H869">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I869" t="s">
         <v>11</v>
@@ -25657,13 +25657,13 @@
         <v>10</v>
       </c>
       <c r="F871">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G871">
         <v>0.8</v>
       </c>
       <c r="H871">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I871" t="s">
         <v>11</v>
@@ -25802,13 +25802,13 @@
         <v>5</v>
       </c>
       <c r="F876">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G876">
         <v>0.6666666666666666</v>
       </c>
       <c r="H876">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I876" t="s">
         <v>11</v>
@@ -25831,13 +25831,13 @@
         <v>6</v>
       </c>
       <c r="F877">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G877">
         <v>0.8333333333333334</v>
       </c>
       <c r="H877">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I877" t="s">
         <v>11</v>
@@ -25918,13 +25918,13 @@
         <v>9</v>
       </c>
       <c r="F880">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G880">
         <v>1</v>
       </c>
       <c r="H880">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I880" t="s">
         <v>11</v>
@@ -25947,13 +25947,13 @@
         <v>10</v>
       </c>
       <c r="F881">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G881">
         <v>0.8</v>
       </c>
       <c r="H881">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I881" t="s">
         <v>11</v>
@@ -26092,13 +26092,13 @@
         <v>5</v>
       </c>
       <c r="F886">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G886">
         <v>0.6666666666666666</v>
       </c>
       <c r="H886">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I886" t="s">
         <v>11</v>
@@ -26179,13 +26179,13 @@
         <v>8</v>
       </c>
       <c r="F889">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G889">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="H889">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I889" t="s">
         <v>11</v>
@@ -26208,13 +26208,13 @@
         <v>9</v>
       </c>
       <c r="F890">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G890">
         <v>1</v>
       </c>
       <c r="H890">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I890" t="s">
         <v>11</v>
@@ -26266,13 +26266,13 @@
         <v>1</v>
       </c>
       <c r="F892">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G892">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H892">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I892" t="s">
         <v>11</v>
@@ -26295,13 +26295,13 @@
         <v>2</v>
       </c>
       <c r="F893">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G893">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H893">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I893" t="s">
         <v>11</v>
@@ -26382,13 +26382,13 @@
         <v>5</v>
       </c>
       <c r="F896">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G896">
         <v>0.6666666666666666</v>
       </c>
       <c r="H896">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I896" t="s">
         <v>11</v>
@@ -26469,13 +26469,13 @@
         <v>8</v>
       </c>
       <c r="F899">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G899">
         <v>0.5</v>
       </c>
-      <c r="G899">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="H899">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I899" t="s">
         <v>11</v>
@@ -26585,13 +26585,13 @@
         <v>2</v>
       </c>
       <c r="F903">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="G903">
         <v>1</v>
       </c>
       <c r="H903">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I903" t="s">
         <v>11</v>
@@ -26759,13 +26759,13 @@
         <v>8</v>
       </c>
       <c r="F909">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G909">
         <v>0.5</v>
       </c>
       <c r="H909">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I909" t="s">
         <v>11</v>
@@ -26788,13 +26788,13 @@
         <v>9</v>
       </c>
       <c r="F910">
-        <v>0.4545454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="G910">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H910">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I910" t="s">
         <v>11</v>
@@ -26817,13 +26817,13 @@
         <v>10</v>
       </c>
       <c r="F911">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G911">
         <v>0.8</v>
       </c>
       <c r="H911">
-        <v>0.976470588235294</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="I911" t="s">
         <v>11</v>
@@ -27049,13 +27049,13 @@
         <v>8</v>
       </c>
       <c r="F919">
-        <v>0.4545454545454545</v>
+        <v>0.375</v>
       </c>
       <c r="G919">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="H919">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I919" t="s">
         <v>11</v>
@@ -27078,13 +27078,13 @@
         <v>9</v>
       </c>
       <c r="F920">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G920">
         <v>1</v>
       </c>
       <c r="H920">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I920" t="s">
         <v>11</v>
@@ -27136,13 +27136,13 @@
         <v>1</v>
       </c>
       <c r="F922">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G922">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H922">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I922" t="s">
         <v>11</v>
@@ -27165,13 +27165,13 @@
         <v>2</v>
       </c>
       <c r="F923">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G923">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H923">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I923" t="s">
         <v>11</v>
@@ -27339,10 +27339,10 @@
         <v>8</v>
       </c>
       <c r="F929">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G929">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H929">
         <v>0.9186046511627908</v>
@@ -27368,13 +27368,13 @@
         <v>9</v>
       </c>
       <c r="F930">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G930">
         <v>1</v>
       </c>
       <c r="H930">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I930" t="s">
         <v>11</v>
@@ -27513,13 +27513,13 @@
         <v>4</v>
       </c>
       <c r="F935">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G935">
         <v>1</v>
       </c>
       <c r="H935">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I935" t="s">
         <v>11</v>
@@ -27629,13 +27629,13 @@
         <v>8</v>
       </c>
       <c r="F939">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G939">
         <v>0.5</v>
       </c>
       <c r="H939">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I939" t="s">
         <v>11</v>
@@ -27658,13 +27658,13 @@
         <v>9</v>
       </c>
       <c r="F940">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G940">
         <v>1</v>
       </c>
       <c r="H940">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I940" t="s">
         <v>11</v>
@@ -27803,13 +27803,13 @@
         <v>4</v>
       </c>
       <c r="F945">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G945">
         <v>1</v>
       </c>
       <c r="H945">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I945" t="s">
         <v>11</v>
@@ -27832,13 +27832,13 @@
         <v>5</v>
       </c>
       <c r="F946">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G946">
         <v>0.6666666666666666</v>
       </c>
       <c r="H946">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I946" t="s">
         <v>11</v>
@@ -27861,13 +27861,13 @@
         <v>6</v>
       </c>
       <c r="F947">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G947">
         <v>0.8333333333333334</v>
       </c>
       <c r="H947">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I947" t="s">
         <v>11</v>
@@ -27919,13 +27919,13 @@
         <v>8</v>
       </c>
       <c r="F949">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="G949">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H949">
-        <v>0.9418604651162792</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I949" t="s">
         <v>11</v>
@@ -27948,13 +27948,13 @@
         <v>9</v>
       </c>
       <c r="F950">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G950">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H950">
-        <v>0.9176470588235294</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I950" t="s">
         <v>11</v>
@@ -27977,13 +27977,13 @@
         <v>10</v>
       </c>
       <c r="F951">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G951">
         <v>0.8</v>
       </c>
       <c r="H951">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I951" t="s">
         <v>11</v>
@@ -28064,13 +28064,13 @@
         <v>3</v>
       </c>
       <c r="F954">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G954">
         <v>0.8</v>
       </c>
       <c r="H954">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I954" t="s">
         <v>11</v>
@@ -28209,13 +28209,13 @@
         <v>8</v>
       </c>
       <c r="F959">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G959">
         <v>0.6666666666666666</v>
       </c>
       <c r="H959">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I959" t="s">
         <v>11</v>
@@ -28238,13 +28238,13 @@
         <v>9</v>
       </c>
       <c r="F960">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G960">
         <v>1</v>
       </c>
       <c r="H960">
-        <v>0.9294117647058824</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I960" t="s">
         <v>11</v>
@@ -28267,13 +28267,13 @@
         <v>10</v>
       </c>
       <c r="F961">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G961">
         <v>0.8</v>
       </c>
       <c r="H961">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I961" t="s">
         <v>11</v>
@@ -28412,13 +28412,13 @@
         <v>5</v>
       </c>
       <c r="F966">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G966">
         <v>0.6666666666666666</v>
       </c>
       <c r="H966">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I966" t="s">
         <v>11</v>
@@ -28499,13 +28499,13 @@
         <v>8</v>
       </c>
       <c r="F969">
-        <v>0.3636363636363637</v>
+        <v>0.4</v>
       </c>
       <c r="G969">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H969">
-        <v>0.8953488372093024</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I969" t="s">
         <v>11</v>
@@ -28615,13 +28615,13 @@
         <v>2</v>
       </c>
       <c r="F973">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G973">
         <v>1</v>
       </c>
       <c r="H973">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I973" t="s">
         <v>11</v>
@@ -28673,13 +28673,13 @@
         <v>4</v>
       </c>
       <c r="F975">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G975">
         <v>1</v>
       </c>
       <c r="H975">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I975" t="s">
         <v>11</v>
@@ -28789,13 +28789,13 @@
         <v>8</v>
       </c>
       <c r="F979">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G979">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H979">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I979" t="s">
         <v>11</v>
@@ -28818,13 +28818,13 @@
         <v>9</v>
       </c>
       <c r="F980">
-        <v>0.4545454545454545</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G980">
         <v>1</v>
       </c>
       <c r="H980">
-        <v>0.9294117647058824</v>
+        <v>0.9529411764705882</v>
       </c>
       <c r="I980" t="s">
         <v>11</v>
@@ -28847,13 +28847,13 @@
         <v>10</v>
       </c>
       <c r="F981">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G981">
         <v>0.8</v>
       </c>
       <c r="H981">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I981" t="s">
         <v>11</v>
@@ -28905,13 +28905,13 @@
         <v>2</v>
       </c>
       <c r="F983">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G983">
         <v>1</v>
       </c>
       <c r="H983">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I983" t="s">
         <v>11</v>
@@ -28934,13 +28934,13 @@
         <v>3</v>
       </c>
       <c r="F984">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G984">
         <v>0.8</v>
       </c>
       <c r="H984">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I984" t="s">
         <v>11</v>
@@ -28992,13 +28992,13 @@
         <v>5</v>
       </c>
       <c r="F986">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G986">
         <v>0.6666666666666666</v>
       </c>
       <c r="H986">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I986" t="s">
         <v>11</v>
@@ -29079,13 +29079,13 @@
         <v>8</v>
       </c>
       <c r="F989">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G989">
         <v>0.3333333333333333</v>
       </c>
       <c r="H989">
-        <v>0.9186046511627908</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I989" t="s">
         <v>11</v>
@@ -29108,13 +29108,13 @@
         <v>9</v>
       </c>
       <c r="F990">
-        <v>0.5</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G990">
         <v>1</v>
       </c>
       <c r="H990">
-        <v>0.9411764705882352</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="I990" t="s">
         <v>11</v>
@@ -29140,10 +29140,10 @@
         <v>1</v>
       </c>
       <c r="G991">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H991">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I991" t="s">
         <v>11</v>
@@ -29195,13 +29195,13 @@
         <v>2</v>
       </c>
       <c r="F993">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G993">
         <v>1</v>
       </c>
       <c r="H993">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I993" t="s">
         <v>11</v>
@@ -29282,13 +29282,13 @@
         <v>5</v>
       </c>
       <c r="F996">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G996">
         <v>0.6666666666666666</v>
       </c>
       <c r="H996">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I996" t="s">
         <v>11</v>
@@ -29369,13 +29369,13 @@
         <v>8</v>
       </c>
       <c r="F999">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G999">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H999">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I999" t="s">
         <v>11</v>
@@ -29398,13 +29398,13 @@
         <v>9</v>
       </c>
       <c r="F1000">
-        <v>0.3636363636363637</v>
+        <v>0.5</v>
       </c>
       <c r="G1000">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H1000">
-        <v>0.9058823529411764</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I1000" t="s">
         <v>11</v>
@@ -29427,13 +29427,13 @@
         <v>10</v>
       </c>
       <c r="F1001">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G1001">
         <v>0.8</v>
       </c>
       <c r="H1001">
-        <v>0.9647058823529412</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I1001" t="s">
         <v>11</v>
@@ -29485,13 +29485,13 @@
         <v>2</v>
       </c>
       <c r="F1003">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G1003">
         <v>1</v>
       </c>
       <c r="H1003">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I1003" t="s">
         <v>11</v>
@@ -29543,13 +29543,13 @@
         <v>4</v>
       </c>
       <c r="F1005">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G1005">
         <v>1</v>
       </c>
       <c r="H1005">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I1005" t="s">
         <v>11</v>
@@ -29572,13 +29572,13 @@
         <v>5</v>
       </c>
       <c r="F1006">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G1006">
         <v>0.6666666666666666</v>
       </c>
       <c r="H1006">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I1006" t="s">
         <v>11</v>
@@ -29659,13 +29659,13 @@
         <v>8</v>
       </c>
       <c r="F1009">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G1009">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H1009">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1009" t="s">
         <v>11</v>
@@ -29720,10 +29720,10 @@
         <v>1</v>
       </c>
       <c r="G1011">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H1011">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I1011" t="s">
         <v>11</v>
@@ -29746,13 +29746,13 @@
         <v>1</v>
       </c>
       <c r="F1012">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G1012">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H1012">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I1012" t="s">
         <v>11</v>
@@ -29862,13 +29862,13 @@
         <v>5</v>
       </c>
       <c r="F1016">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="G1016">
         <v>0.6666666666666666</v>
       </c>
       <c r="H1016">
-        <v>0.9186046511627908</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I1016" t="s">
         <v>11</v>
@@ -29891,13 +29891,13 @@
         <v>6</v>
       </c>
       <c r="F1017">
-        <v>0.4166666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="G1017">
         <v>0.8333333333333334</v>
       </c>
       <c r="H1017">
-        <v>0.9069767441860463</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I1017" t="s">
         <v>11</v>
@@ -29978,13 +29978,13 @@
         <v>9</v>
       </c>
       <c r="F1020">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="G1020">
         <v>1</v>
       </c>
       <c r="H1020">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I1020" t="s">
         <v>11</v>
@@ -30007,13 +30007,13 @@
         <v>10</v>
       </c>
       <c r="F1021">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G1021">
         <v>0.8</v>
       </c>
       <c r="H1021">
-        <v>0.9882352941176472</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="I1021" t="s">
         <v>11</v>
@@ -30065,13 +30065,13 @@
         <v>2</v>
       </c>
       <c r="F1023">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G1023">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H1023">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I1023" t="s">
         <v>11</v>
@@ -30123,13 +30123,13 @@
         <v>4</v>
       </c>
       <c r="F1025">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G1025">
         <v>1</v>
       </c>
       <c r="H1025">
-        <v>0.9767441860465116</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I1025" t="s">
         <v>11</v>
@@ -30239,13 +30239,13 @@
         <v>8</v>
       </c>
       <c r="F1029">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G1029">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H1029">
-        <v>0.9069767441860463</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1029" t="s">
         <v>11</v>
@@ -30355,13 +30355,13 @@
         <v>2</v>
       </c>
       <c r="F1033">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G1033">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H1033">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I1033" t="s">
         <v>11</v>
@@ -30500,13 +30500,13 @@
         <v>7</v>
       </c>
       <c r="F1038">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G1038">
         <v>0.8333333333333334</v>
       </c>
       <c r="H1038">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I1038" t="s">
         <v>11</v>
@@ -30529,13 +30529,13 @@
         <v>8</v>
       </c>
       <c r="F1039">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G1039">
         <v>0.5</v>
       </c>
       <c r="H1039">
-        <v>0.9186046511627908</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I1039" t="s">
         <v>11</v>
@@ -30558,13 +30558,13 @@
         <v>9</v>
       </c>
       <c r="F1040">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G1040">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H1040">
-        <v>0.9411764705882352</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I1040" t="s">
         <v>11</v>
@@ -30819,13 +30819,13 @@
         <v>8</v>
       </c>
       <c r="F1049">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G1049">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H1049">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1049" t="s">
         <v>11</v>
@@ -30848,13 +30848,13 @@
         <v>9</v>
       </c>
       <c r="F1050">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G1050">
         <v>1</v>
       </c>
       <c r="H1050">
-        <v>0.9411764705882352</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="I1050" t="s">
         <v>11</v>
@@ -30906,13 +30906,13 @@
         <v>1</v>
       </c>
       <c r="F1052">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G1052">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H1052">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I1052" t="s">
         <v>11</v>
@@ -30993,13 +30993,13 @@
         <v>4</v>
       </c>
       <c r="F1055">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G1055">
         <v>1</v>
       </c>
       <c r="H1055">
-        <v>0.9767441860465116</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I1055" t="s">
         <v>11</v>
@@ -31022,13 +31022,13 @@
         <v>5</v>
       </c>
       <c r="F1056">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G1056">
         <v>0.6666666666666666</v>
       </c>
       <c r="H1056">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1056" t="s">
         <v>11</v>
@@ -31051,13 +31051,13 @@
         <v>6</v>
       </c>
       <c r="F1057">
-        <v>0.4545454545454545</v>
+        <v>0.625</v>
       </c>
       <c r="G1057">
         <v>0.8333333333333334</v>
       </c>
       <c r="H1057">
-        <v>0.9186046511627908</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I1057" t="s">
         <v>11</v>
@@ -31109,13 +31109,13 @@
         <v>8</v>
       </c>
       <c r="F1059">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G1059">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H1059">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1059" t="s">
         <v>11</v>
@@ -31167,13 +31167,13 @@
         <v>10</v>
       </c>
       <c r="F1061">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G1061">
         <v>0.8</v>
       </c>
       <c r="H1061">
-        <v>0.976470588235294</v>
+        <v>0.9882352941176472</v>
       </c>
       <c r="I1061" t="s">
         <v>11</v>
@@ -31225,13 +31225,13 @@
         <v>2</v>
       </c>
       <c r="F1063">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G1063">
         <v>1</v>
       </c>
       <c r="H1063">
-        <v>0.9883720930232558</v>
+        <v>0.9651162790697676</v>
       </c>
       <c r="I1063" t="s">
         <v>11</v>
@@ -31312,13 +31312,13 @@
         <v>5</v>
       </c>
       <c r="F1066">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G1066">
         <v>0.6666666666666666</v>
       </c>
       <c r="H1066">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1066" t="s">
         <v>11</v>
@@ -31341,13 +31341,13 @@
         <v>6</v>
       </c>
       <c r="F1067">
-        <v>0.5555555555555556</v>
+        <v>0.625</v>
       </c>
       <c r="G1067">
         <v>0.8333333333333334</v>
       </c>
       <c r="H1067">
-        <v>0.9418604651162792</v>
+        <v>0.9534883720930232</v>
       </c>
       <c r="I1067" t="s">
         <v>11</v>
@@ -31399,10 +31399,10 @@
         <v>8</v>
       </c>
       <c r="F1069">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="G1069">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H1069">
         <v>0.9069767441860463</v>
@@ -31428,13 +31428,13 @@
         <v>9</v>
       </c>
       <c r="F1070">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G1070">
         <v>1</v>
       </c>
       <c r="H1070">
-        <v>0.9411764705882352</v>
+        <v>0.9294117647058824</v>
       </c>
       <c r="I1070" t="s">
         <v>11</v>
@@ -31515,13 +31515,13 @@
         <v>2</v>
       </c>
       <c r="F1073">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G1073">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H1073">
-        <v>0.9651162790697676</v>
+        <v>0.9883720930232558</v>
       </c>
       <c r="I1073" t="s">
         <v>11</v>
@@ -31573,13 +31573,13 @@
         <v>4</v>
       </c>
       <c r="F1075">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="G1075">
         <v>1</v>
       </c>
       <c r="H1075">
-        <v>0.9883720930232558</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="I1075" t="s">
         <v>11</v>
@@ -31602,13 +31602,13 @@
         <v>5</v>
       </c>
       <c r="F1076">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G1076">
         <v>0.6666666666666666</v>
       </c>
       <c r="H1076">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1076" t="s">
         <v>11</v>
@@ -31631,13 +31631,13 @@
         <v>6</v>
       </c>
       <c r="F1077">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G1077">
         <v>0.8333333333333334</v>
       </c>
       <c r="H1077">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I1077" t="s">
         <v>11</v>
@@ -31689,10 +31689,10 @@
         <v>8</v>
       </c>
       <c r="F1079">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G1079">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="G1079">
-        <v>0.5</v>
       </c>
       <c r="H1079">
         <v>0.8953488372093024</v>
@@ -31718,13 +31718,13 @@
         <v>9</v>
       </c>
       <c r="F1080">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G1080">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H1080">
-        <v>0.9411764705882352</v>
+        <v>0.9058823529411764</v>
       </c>
       <c r="I1080" t="s">
         <v>11</v>
@@ -31747,13 +31747,13 @@
         <v>10</v>
       </c>
       <c r="F1081">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G1081">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H1081">
-        <v>0.9882352941176472</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="I1081" t="s">
         <v>11</v>
